--- a/src/opt/test/data/GAMUT.xlsx
+++ b/src/opt/test/data/GAMUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorit\Documents\spring2019\cs4641\Randomized Optimization\ABAGAIL\src\opt\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BAFE17-92CD-484E-B76C-A9BC4DE97166}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D24CA-ECDF-4207-8014-12CFEA099390}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17112" yWindow="6696" windowWidth="11076" windowHeight="5736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Iterations</t>
   </si>
@@ -17122,8 +17122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H8"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
